--- a/data/Teachers.xlsx
+++ b/data/Teachers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12390" tabRatio="696"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10755" windowHeight="12390" tabRatio="696"/>
   </bookViews>
   <sheets>
     <sheet name="оклади 01.09.19" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1200" authorId="0">
+    <comment ref="L1199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1201" authorId="0">
+    <comment ref="L1200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10963" uniqueCount="2453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10963" uniqueCount="2455">
   <si>
     <t>425-к</t>
   </si>
@@ -7994,6 +7994,12 @@
   </si>
   <si>
     <t>Безхлібна Анастасія Павлівна</t>
+  </si>
+  <si>
+    <t>Гермашев Антон Ігоревич</t>
+  </si>
+  <si>
+    <t>Карпенко Наталя Миколаївна</t>
   </si>
 </sst>
 </file>
@@ -9062,6 +9068,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9124,41 +9165,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9536,9 +9542,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AJ1212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1210" sqref="J1210:N1212"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A1189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1193" sqref="J1193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -9586,87 +9592,87 @@
       <c r="O2" s="151"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="219"/>
     </row>
     <row r="4" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="220" t="s">
         <v>2287</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="220" t="s">
         <v>2288</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="C4" s="222" t="s">
         <v>2009</v>
       </c>
-      <c r="D4" s="207" t="s">
+      <c r="D4" s="222" t="s">
         <v>1839</v>
       </c>
-      <c r="E4" s="207" t="s">
+      <c r="E4" s="222" t="s">
         <v>1674</v>
       </c>
-      <c r="F4" s="219" t="s">
+      <c r="F4" s="234" t="s">
         <v>1402</v>
       </c>
-      <c r="G4" s="219" t="s">
+      <c r="G4" s="234" t="s">
         <v>1098</v>
       </c>
-      <c r="H4" s="219" t="s">
+      <c r="H4" s="234" t="s">
         <v>403</v>
       </c>
-      <c r="I4" s="219" t="s">
+      <c r="I4" s="234" t="s">
         <v>277</v>
       </c>
-      <c r="J4" s="205" t="s">
+      <c r="J4" s="220" t="s">
         <v>653</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="210" t="s">
+      <c r="K4" s="222"/>
+      <c r="L4" s="225" t="s">
         <v>801</v>
       </c>
-      <c r="M4" s="211"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="206" t="s">
+      <c r="M4" s="226"/>
+      <c r="N4" s="227"/>
+      <c r="O4" s="221" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="38" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="205"/>
-      <c r="B5" s="205"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="208"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="206"/>
+      <c r="A5" s="220"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="223"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="229"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="221"/>
     </row>
     <row r="6" spans="1:15" s="38" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="205"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="217"/>
-      <c r="N6" s="218"/>
-      <c r="O6" s="206"/>
+      <c r="A6" s="220"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="224"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="233"/>
+      <c r="O6" s="221"/>
     </row>
     <row r="7" spans="1:15" s="39" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144">
@@ -55252,30 +55258,30 @@
       <c r="A1192" s="198" t="s">
         <v>2156</v>
       </c>
-      <c r="B1192" s="222" t="s">
+      <c r="B1192" s="204" t="s">
         <v>2293</v>
       </c>
-      <c r="C1192" s="223">
+      <c r="C1192" s="205">
         <v>91</v>
       </c>
-      <c r="D1192" s="223"/>
-      <c r="E1192" s="223" t="s">
+      <c r="D1192" s="205"/>
+      <c r="E1192" s="205" t="s">
         <v>1781</v>
       </c>
-      <c r="F1192" s="223" t="s">
+      <c r="F1192" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="G1192" s="223"/>
-      <c r="H1192" s="223" t="s">
+      <c r="G1192" s="205"/>
+      <c r="H1192" s="205" t="s">
         <v>1096</v>
       </c>
-      <c r="I1192" s="223" t="s">
+      <c r="I1192" s="205" t="s">
         <v>235</v>
       </c>
-      <c r="J1192" s="224" t="s">
+      <c r="J1192" s="206" t="s">
         <v>2429</v>
       </c>
-      <c r="K1192" s="224" t="s">
+      <c r="K1192" s="206" t="s">
         <v>2354</v>
       </c>
       <c r="L1192" s="201" t="s">
@@ -55291,155 +55297,140 @@
         <v>669</v>
       </c>
     </row>
-    <row r="1193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:16" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A1193" s="198" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B1193" s="222" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C1193" s="223">
-        <v>400</v>
-      </c>
-      <c r="D1193" s="223" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E1193" s="223" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F1193" s="223"/>
-      <c r="G1193" s="223"/>
-      <c r="H1193" s="223"/>
-      <c r="I1193" s="223"/>
-      <c r="J1193" s="224" t="s">
-        <v>1665</v>
-      </c>
-      <c r="K1193" s="224" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1193" s="198" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1193" s="207">
+        <v>476</v>
+      </c>
+      <c r="D1193" s="207"/>
+      <c r="E1193" s="207" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F1193" s="207"/>
+      <c r="G1193" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1193" s="207" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1193" s="207"/>
+      <c r="J1193" s="206" t="s">
+        <v>2454</v>
+      </c>
+      <c r="K1193" s="206" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1193" s="201" t="s">
+        <v>591</v>
+      </c>
+      <c r="M1193" s="202" t="s">
+        <v>2133</v>
+      </c>
+      <c r="N1193" s="202" t="s">
+        <v>2119</v>
+      </c>
+      <c r="O1193" s="146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1194" s="199" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1194" s="199" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1194" s="199"/>
+      <c r="D1194" s="199"/>
+      <c r="E1194" s="199"/>
+      <c r="F1194" s="199"/>
+      <c r="G1194" s="199"/>
+      <c r="H1194" s="199"/>
+      <c r="I1194" s="199"/>
+      <c r="J1194" s="200" t="s">
+        <v>2430</v>
+      </c>
+      <c r="K1194" s="200" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1194" s="208"/>
+      <c r="M1194" s="209"/>
+      <c r="N1194" s="209"/>
+    </row>
+    <row r="1195" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1195" s="198" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1195" s="198" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1195" s="205"/>
+      <c r="D1195" s="205"/>
+      <c r="E1195" s="205">
+        <v>8</v>
+      </c>
+      <c r="F1195" s="205"/>
+      <c r="G1195" s="205" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H1195" s="205" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I1195" s="205"/>
+      <c r="J1195" s="206" t="s">
+        <v>2432</v>
+      </c>
+      <c r="K1195" s="206" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1195" s="201" t="s">
+        <v>670</v>
+      </c>
+      <c r="M1195" s="202" t="s">
+        <v>2133</v>
+      </c>
+      <c r="N1195" s="202" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O1195" s="146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1196" s="213" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1196" s="213" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1196" s="199"/>
+      <c r="D1196" s="199"/>
+      <c r="E1196" s="199"/>
+      <c r="F1196" s="199"/>
+      <c r="G1196" s="199"/>
+      <c r="H1196" s="199"/>
+      <c r="I1196" s="199"/>
+      <c r="J1196" s="200" t="s">
+        <v>2433</v>
+      </c>
+      <c r="K1196" s="200" t="s">
         <v>2355</v>
       </c>
-      <c r="L1193" s="201" t="s">
-        <v>670</v>
-      </c>
-      <c r="M1193" s="202" t="s">
-        <v>2131</v>
-      </c>
-      <c r="N1193" s="202" t="s">
-        <v>2114</v>
-      </c>
-      <c r="O1193" s="146" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:16" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A1194" s="198" t="s">
-        <v>2362</v>
-      </c>
-      <c r="B1194" s="198" t="s">
-        <v>2363</v>
-      </c>
-      <c r="C1194" s="225">
-        <v>476</v>
-      </c>
-      <c r="D1194" s="225"/>
-      <c r="E1194" s="225" t="s">
-        <v>1741</v>
-      </c>
-      <c r="F1194" s="225"/>
-      <c r="G1194" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1194" s="225" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1194" s="225"/>
-      <c r="J1194" s="224" t="s">
-        <v>436</v>
-      </c>
-      <c r="K1194" s="224" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1194" s="201" t="s">
-        <v>591</v>
-      </c>
-      <c r="M1194" s="202" t="s">
-        <v>2133</v>
-      </c>
-      <c r="N1194" s="202" t="s">
-        <v>2119</v>
-      </c>
-      <c r="O1194" s="146" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1195" s="199" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B1195" s="199" t="s">
-        <v>2327</v>
-      </c>
-      <c r="C1195" s="199"/>
-      <c r="D1195" s="199"/>
-      <c r="E1195" s="199"/>
-      <c r="F1195" s="199"/>
-      <c r="G1195" s="199"/>
-      <c r="H1195" s="199"/>
-      <c r="I1195" s="199"/>
-      <c r="J1195" s="200" t="s">
-        <v>2430</v>
-      </c>
-      <c r="K1195" s="200" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1195" s="226"/>
-      <c r="M1195" s="227"/>
-      <c r="N1195" s="227"/>
-    </row>
-    <row r="1196" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1196" s="198" t="s">
-        <v>2165</v>
-      </c>
-      <c r="B1196" s="198" t="s">
-        <v>2302</v>
-      </c>
-      <c r="C1196" s="223"/>
-      <c r="D1196" s="223"/>
-      <c r="E1196" s="223">
-        <v>8</v>
-      </c>
-      <c r="F1196" s="223"/>
-      <c r="G1196" s="223" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H1196" s="223" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I1196" s="223"/>
-      <c r="J1196" s="224" t="s">
-        <v>2432</v>
-      </c>
-      <c r="K1196" s="224" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1196" s="201" t="s">
-        <v>670</v>
-      </c>
-      <c r="M1196" s="202" t="s">
-        <v>2133</v>
-      </c>
-      <c r="N1196" s="202" t="s">
-        <v>2114</v>
-      </c>
-      <c r="O1196" s="146" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1197" s="231" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B1197" s="231" t="s">
-        <v>2327</v>
+      <c r="L1196" s="208"/>
+      <c r="M1196" s="209"/>
+      <c r="N1196" s="209"/>
+    </row>
+    <row r="1197" spans="1:16" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A1197" s="207" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1197" s="207" t="s">
+        <v>2319</v>
       </c>
       <c r="C1197" s="199"/>
       <c r="D1197" s="199"/>
@@ -55449,370 +55440,371 @@
       <c r="H1197" s="199"/>
       <c r="I1197" s="199"/>
       <c r="J1197" s="200" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="K1197" s="200" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1197" s="201" t="s">
+        <v>670</v>
+      </c>
+      <c r="M1197" s="202" t="s">
+        <v>2133</v>
+      </c>
+      <c r="N1197" s="202" t="s">
+        <v>2116</v>
+      </c>
+      <c r="O1197" s="170" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1198" s="207" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1198" s="207" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1198" s="205" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D1198" s="205">
+        <v>6</v>
+      </c>
+      <c r="E1198" s="205"/>
+      <c r="F1198" s="205" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G1198" s="205" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1198" s="205"/>
+      <c r="I1198" s="205"/>
+      <c r="J1198" s="206" t="s">
+        <v>2435</v>
+      </c>
+      <c r="K1198" s="206" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1198" s="201" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1198" s="202"/>
+      <c r="N1198" s="202"/>
+      <c r="O1198" s="147" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1199" s="207" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1199" s="207" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1199" s="214"/>
+      <c r="D1199" s="214">
+        <v>248</v>
+      </c>
+      <c r="E1199" s="214">
+        <v>455</v>
+      </c>
+      <c r="F1199" s="214"/>
+      <c r="G1199" s="214" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1199" s="214" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1199" s="214" t="s">
+        <v>848</v>
+      </c>
+      <c r="J1199" s="210" t="s">
+        <v>2436</v>
+      </c>
+      <c r="K1199" s="210" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1199" s="211" t="s">
+        <v>591</v>
+      </c>
+      <c r="M1199" s="212" t="s">
+        <v>2133</v>
+      </c>
+      <c r="N1199" s="212" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O1199" s="146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1200" s="207" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1200" s="207" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1200" s="214"/>
+      <c r="D1200" s="214">
+        <v>248</v>
+      </c>
+      <c r="E1200" s="214">
+        <v>455</v>
+      </c>
+      <c r="F1200" s="214"/>
+      <c r="G1200" s="214" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1200" s="214" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1200" s="214" t="s">
+        <v>848</v>
+      </c>
+      <c r="J1200" s="210" t="s">
+        <v>2437</v>
+      </c>
+      <c r="K1200" s="210" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1200" s="211" t="s">
+        <v>591</v>
+      </c>
+      <c r="M1200" s="212" t="s">
+        <v>2133</v>
+      </c>
+      <c r="N1200" s="212" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O1200" s="146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1201" s="207" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1201" s="207" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1201" s="214"/>
+      <c r="D1201" s="214">
+        <v>248</v>
+      </c>
+      <c r="E1201" s="214">
+        <v>455</v>
+      </c>
+      <c r="F1201" s="214"/>
+      <c r="G1201" s="214" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1201" s="214" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1201" s="214" t="s">
+        <v>848</v>
+      </c>
+      <c r="J1201" s="210" t="s">
+        <v>2438</v>
+      </c>
+      <c r="K1201" s="210" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1201" s="201" t="s">
+        <v>476</v>
+      </c>
+      <c r="M1201" s="212"/>
+      <c r="N1201" s="212"/>
+      <c r="O1201" s="146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1202" s="205" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1202" s="205" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1202" s="205"/>
+      <c r="D1202" s="205"/>
+      <c r="E1202" s="205"/>
+      <c r="F1202" s="205"/>
+      <c r="G1202" s="205"/>
+      <c r="H1202" s="205"/>
+      <c r="I1202" s="205"/>
+      <c r="J1202" s="206" t="s">
+        <v>2439</v>
+      </c>
+      <c r="K1202" s="206" t="s">
         <v>2355</v>
       </c>
-      <c r="L1197" s="226"/>
-      <c r="M1197" s="227"/>
-      <c r="N1197" s="227"/>
-    </row>
-    <row r="1198" spans="1:16" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A1198" s="225" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B1198" s="225" t="s">
-        <v>2319</v>
-      </c>
-      <c r="C1198" s="199"/>
-      <c r="D1198" s="199"/>
-      <c r="E1198" s="199"/>
-      <c r="F1198" s="199"/>
-      <c r="G1198" s="199"/>
-      <c r="H1198" s="199"/>
-      <c r="I1198" s="199"/>
-      <c r="J1198" s="200" t="s">
-        <v>2434</v>
-      </c>
-      <c r="K1198" s="200" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1198" s="201" t="s">
+      <c r="L1202" s="215" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1202" s="202"/>
+      <c r="N1202" s="202"/>
+      <c r="O1202" s="146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1203" s="205" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1203" s="205" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1203" s="205">
+        <v>395</v>
+      </c>
+      <c r="D1203" s="205"/>
+      <c r="E1203" s="205"/>
+      <c r="F1203" s="205"/>
+      <c r="G1203" s="205"/>
+      <c r="H1203" s="205"/>
+      <c r="I1203" s="205"/>
+      <c r="J1203" s="206" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K1203" s="206" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1203" s="201" t="s">
         <v>670</v>
       </c>
-      <c r="M1198" s="202" t="s">
+      <c r="M1203" s="202" t="s">
         <v>2133</v>
       </c>
-      <c r="N1198" s="202" t="s">
-        <v>2116</v>
-      </c>
-      <c r="O1198" s="170" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1199" s="225" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B1199" s="225" t="s">
-        <v>2319</v>
-      </c>
-      <c r="C1199" s="223" t="s">
-        <v>2210</v>
-      </c>
-      <c r="D1199" s="223">
-        <v>6</v>
-      </c>
-      <c r="E1199" s="223"/>
-      <c r="F1199" s="223" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G1199" s="223" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1199" s="223"/>
-      <c r="I1199" s="223"/>
-      <c r="J1199" s="224" t="s">
-        <v>2435</v>
-      </c>
-      <c r="K1199" s="224" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1199" s="201" t="s">
+      <c r="N1203" s="202" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O1203" s="147" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1204" s="205" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1204" s="205" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1204" s="205"/>
+      <c r="D1204" s="205"/>
+      <c r="E1204" s="205"/>
+      <c r="F1204" s="205"/>
+      <c r="G1204" s="205"/>
+      <c r="H1204" s="205"/>
+      <c r="I1204" s="205"/>
+      <c r="J1204" s="206" t="s">
+        <v>2441</v>
+      </c>
+      <c r="K1204" s="206" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L1204" s="215" t="s">
         <v>370</v>
       </c>
-      <c r="M1199" s="202"/>
-      <c r="N1199" s="202"/>
-      <c r="O1199" s="147" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1200" s="225" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B1200" s="225" t="s">
-        <v>2319</v>
-      </c>
-      <c r="C1200" s="232"/>
-      <c r="D1200" s="232">
-        <v>248</v>
-      </c>
-      <c r="E1200" s="232">
-        <v>455</v>
-      </c>
-      <c r="F1200" s="232"/>
-      <c r="G1200" s="232" t="s">
-        <v>585</v>
-      </c>
-      <c r="H1200" s="232" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1200" s="232" t="s">
-        <v>848</v>
-      </c>
-      <c r="J1200" s="228" t="s">
-        <v>2436</v>
-      </c>
-      <c r="K1200" s="228" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1200" s="229" t="s">
-        <v>591</v>
-      </c>
-      <c r="M1200" s="230" t="s">
-        <v>2133</v>
-      </c>
-      <c r="N1200" s="230" t="s">
-        <v>2114</v>
-      </c>
-      <c r="O1200" s="146" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1201" s="225" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B1201" s="225" t="s">
-        <v>2319</v>
-      </c>
-      <c r="C1201" s="232"/>
-      <c r="D1201" s="232">
-        <v>248</v>
-      </c>
-      <c r="E1201" s="232">
-        <v>455</v>
-      </c>
-      <c r="F1201" s="232"/>
-      <c r="G1201" s="232" t="s">
-        <v>585</v>
-      </c>
-      <c r="H1201" s="232" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1201" s="232" t="s">
-        <v>848</v>
-      </c>
-      <c r="J1201" s="228" t="s">
-        <v>2437</v>
-      </c>
-      <c r="K1201" s="228" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1201" s="229" t="s">
-        <v>591</v>
-      </c>
-      <c r="M1201" s="230" t="s">
-        <v>2133</v>
-      </c>
-      <c r="N1201" s="230" t="s">
-        <v>2114</v>
-      </c>
-      <c r="O1201" s="146" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1202" s="225" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B1202" s="225" t="s">
-        <v>2319</v>
-      </c>
-      <c r="C1202" s="232"/>
-      <c r="D1202" s="232">
-        <v>248</v>
-      </c>
-      <c r="E1202" s="232">
-        <v>455</v>
-      </c>
-      <c r="F1202" s="232"/>
-      <c r="G1202" s="232" t="s">
-        <v>585</v>
-      </c>
-      <c r="H1202" s="232" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1202" s="232" t="s">
-        <v>848</v>
-      </c>
-      <c r="J1202" s="228" t="s">
-        <v>2438</v>
-      </c>
-      <c r="K1202" s="228" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1202" s="201" t="s">
-        <v>476</v>
-      </c>
-      <c r="M1202" s="230"/>
-      <c r="N1202" s="230"/>
-      <c r="O1202" s="146" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1203" s="223" t="s">
-        <v>2181</v>
-      </c>
-      <c r="B1203" s="223" t="s">
-        <v>2321</v>
-      </c>
-      <c r="C1203" s="223"/>
-      <c r="D1203" s="223"/>
-      <c r="E1203" s="223"/>
-      <c r="F1203" s="223"/>
-      <c r="G1203" s="223"/>
-      <c r="H1203" s="223"/>
-      <c r="I1203" s="223"/>
-      <c r="J1203" s="224" t="s">
-        <v>2439</v>
-      </c>
-      <c r="K1203" s="224" t="s">
+      <c r="M1204" s="202"/>
+      <c r="N1204" s="202"/>
+      <c r="O1204" s="146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1205" s="214" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B1205" s="214" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C1205" s="214">
+        <v>386</v>
+      </c>
+      <c r="D1205" s="214"/>
+      <c r="E1205" s="214"/>
+      <c r="F1205" s="214"/>
+      <c r="G1205" s="214"/>
+      <c r="H1205" s="214"/>
+      <c r="I1205" s="214"/>
+      <c r="J1205" s="210" t="s">
+        <v>2443</v>
+      </c>
+      <c r="K1205" s="210" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1205" s="211"/>
+      <c r="M1205" s="216"/>
+      <c r="N1205" s="216"/>
+      <c r="O1205" s="146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1206" s="214" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B1206" s="205" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C1206" s="205"/>
+      <c r="D1206" s="205">
+        <v>22</v>
+      </c>
+      <c r="E1206" s="205">
+        <v>239</v>
+      </c>
+      <c r="F1206" s="205" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G1206" s="205" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H1206" s="205" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I1206" s="205" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1206" s="206" t="s">
+        <v>2445</v>
+      </c>
+      <c r="K1206" s="206" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L1206" s="201"/>
+      <c r="M1206" s="202"/>
+      <c r="N1206" s="202"/>
+      <c r="O1206" s="146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1207" s="198" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1207" s="198" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1207" s="199"/>
+      <c r="D1207" s="199"/>
+      <c r="E1207" s="199"/>
+      <c r="F1207" s="199"/>
+      <c r="G1207" s="199"/>
+      <c r="H1207" s="199"/>
+      <c r="I1207" s="199"/>
+      <c r="J1207" s="200" t="s">
+        <v>2446</v>
+      </c>
+      <c r="K1207" s="200" t="s">
         <v>2355</v>
       </c>
-      <c r="L1203" s="233" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1203" s="202"/>
-      <c r="N1203" s="202"/>
-      <c r="O1203" s="146" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1204" s="223" t="s">
-        <v>2181</v>
-      </c>
-      <c r="B1204" s="223" t="s">
-        <v>2321</v>
-      </c>
-      <c r="C1204" s="223">
-        <v>395</v>
-      </c>
-      <c r="D1204" s="223"/>
-      <c r="E1204" s="223"/>
-      <c r="F1204" s="223"/>
-      <c r="G1204" s="223"/>
-      <c r="H1204" s="223"/>
-      <c r="I1204" s="223"/>
-      <c r="J1204" s="224" t="s">
-        <v>2440</v>
-      </c>
-      <c r="K1204" s="224" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1204" s="201" t="s">
-        <v>670</v>
-      </c>
-      <c r="M1204" s="202" t="s">
-        <v>2133</v>
-      </c>
-      <c r="N1204" s="202" t="s">
-        <v>2114</v>
-      </c>
-      <c r="O1204" s="147" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1205" s="223" t="s">
-        <v>2181</v>
-      </c>
-      <c r="B1205" s="223" t="s">
-        <v>2321</v>
-      </c>
-      <c r="C1205" s="223"/>
-      <c r="D1205" s="223"/>
-      <c r="E1205" s="223"/>
-      <c r="F1205" s="223"/>
-      <c r="G1205" s="223"/>
-      <c r="H1205" s="223"/>
-      <c r="I1205" s="223"/>
-      <c r="J1205" s="224" t="s">
-        <v>2441</v>
-      </c>
-      <c r="K1205" s="224" t="s">
-        <v>2355</v>
-      </c>
-      <c r="L1205" s="233" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1205" s="202"/>
-      <c r="N1205" s="202"/>
-      <c r="O1205" s="146" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1206" s="232" t="s">
-        <v>2386</v>
-      </c>
-      <c r="B1206" s="232" t="s">
-        <v>2387</v>
-      </c>
-      <c r="C1206" s="232">
-        <v>386</v>
-      </c>
-      <c r="D1206" s="232"/>
-      <c r="E1206" s="232"/>
-      <c r="F1206" s="232"/>
-      <c r="G1206" s="232"/>
-      <c r="H1206" s="232"/>
-      <c r="I1206" s="232"/>
-      <c r="J1206" s="228" t="s">
-        <v>2443</v>
-      </c>
-      <c r="K1206" s="228" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1206" s="229"/>
-      <c r="M1206" s="234"/>
-      <c r="N1206" s="234"/>
-      <c r="O1206" s="146" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1207" s="232" t="s">
-        <v>2386</v>
-      </c>
-      <c r="B1207" s="223" t="s">
-        <v>2339</v>
-      </c>
-      <c r="C1207" s="223"/>
-      <c r="D1207" s="223">
-        <v>22</v>
-      </c>
-      <c r="E1207" s="223">
-        <v>239</v>
-      </c>
-      <c r="F1207" s="223" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G1207" s="223" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H1207" s="223" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I1207" s="223" t="s">
-        <v>294</v>
-      </c>
-      <c r="J1207" s="224" t="s">
-        <v>2445</v>
-      </c>
-      <c r="K1207" s="224" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L1207" s="201"/>
-      <c r="M1207" s="202"/>
-      <c r="N1207" s="202"/>
-      <c r="O1207" s="146" t="s">
-        <v>669</v>
-      </c>
+      <c r="L1207" s="208"/>
+      <c r="M1207" s="209"/>
+      <c r="N1207" s="209"/>
+      <c r="O1207" s="146"/>
     </row>
     <row r="1208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1208" s="198" t="s">
@@ -55821,89 +55813,109 @@
       <c r="B1208" s="198" t="s">
         <v>2294</v>
       </c>
-      <c r="C1208" s="199"/>
-      <c r="D1208" s="199"/>
-      <c r="E1208" s="199"/>
-      <c r="F1208" s="199"/>
-      <c r="G1208" s="199"/>
-      <c r="H1208" s="199"/>
-      <c r="I1208" s="199"/>
-      <c r="J1208" s="200" t="s">
-        <v>2446</v>
-      </c>
-      <c r="K1208" s="200" t="s">
+      <c r="C1208" s="205"/>
+      <c r="D1208" s="205"/>
+      <c r="E1208" s="205"/>
+      <c r="F1208" s="205"/>
+      <c r="G1208" s="205"/>
+      <c r="H1208" s="205"/>
+      <c r="I1208" s="205"/>
+      <c r="J1208" s="206" t="s">
+        <v>2448</v>
+      </c>
+      <c r="K1208" s="206" t="s">
         <v>2355</v>
       </c>
-      <c r="L1208" s="226"/>
-      <c r="M1208" s="227"/>
-      <c r="N1208" s="227"/>
-      <c r="O1208" s="146"/>
+      <c r="L1208" s="201" t="s">
+        <v>853</v>
+      </c>
+      <c r="M1208" s="217" t="s">
+        <v>2132</v>
+      </c>
+      <c r="N1208" s="202" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O1208" s="146" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="1209" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1209" s="198" t="s">
-        <v>2157</v>
-      </c>
-      <c r="B1209" s="198" t="s">
-        <v>2294</v>
-      </c>
-      <c r="C1209" s="223"/>
-      <c r="D1209" s="223"/>
-      <c r="E1209" s="223"/>
-      <c r="F1209" s="223"/>
-      <c r="G1209" s="223"/>
-      <c r="H1209" s="223"/>
-      <c r="I1209" s="223"/>
-      <c r="J1209" s="224" t="s">
-        <v>2448</v>
-      </c>
-      <c r="K1209" s="224" t="s">
-        <v>2355</v>
+      <c r="A1209" s="205" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B1209" s="205" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C1209" s="205">
+        <v>476</v>
+      </c>
+      <c r="D1209" s="205" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E1209" s="205">
+        <v>440</v>
+      </c>
+      <c r="F1209" s="205">
+        <v>421</v>
+      </c>
+      <c r="G1209" s="205" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1209" s="205" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I1209" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1209" s="206" t="s">
+        <v>2450</v>
+      </c>
+      <c r="K1209" s="206" t="s">
+        <v>2354</v>
       </c>
       <c r="L1209" s="201" t="s">
-        <v>853</v>
-      </c>
-      <c r="M1209" s="235" t="s">
-        <v>2132</v>
+        <v>670</v>
+      </c>
+      <c r="M1209" s="202" t="s">
+        <v>2133</v>
       </c>
       <c r="N1209" s="202" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="O1209" s="146" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="1210" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1210" s="77" t="s">
+      <c r="A1210" s="205" t="s">
         <v>2372</v>
       </c>
-      <c r="B1210" s="77" t="s">
+      <c r="B1210" s="205" t="s">
         <v>2373</v>
       </c>
-      <c r="C1210" s="28">
+      <c r="C1210" s="205">
         <v>476</v>
       </c>
-      <c r="D1210" s="28" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E1210" s="28">
+      <c r="D1210" s="205">
+        <v>376.40699999999998</v>
+      </c>
+      <c r="E1210" s="205">
         <v>440</v>
       </c>
-      <c r="F1210" s="28">
-        <v>421</v>
-      </c>
-      <c r="G1210" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1210" s="28" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I1210" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1210" s="224" t="s">
-        <v>2450</v>
-      </c>
-      <c r="K1210" s="224" t="s">
+      <c r="F1210" s="205"/>
+      <c r="G1210" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1210" s="205" t="s">
+        <v>929</v>
+      </c>
+      <c r="I1210" s="205" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1210" s="206" t="s">
+        <v>2451</v>
+      </c>
+      <c r="K1210" s="206" t="s">
         <v>2354</v>
       </c>
       <c r="L1210" s="201" t="s">
@@ -55912,43 +55924,41 @@
       <c r="M1210" s="202" t="s">
         <v>2133</v>
       </c>
-      <c r="N1210" s="202" t="s">
-        <v>2118</v>
+      <c r="N1210" s="218" t="s">
+        <v>2117</v>
       </c>
       <c r="O1210" s="146" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="1211" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1211" s="77" t="s">
+      <c r="A1211" s="205" t="s">
         <v>2372</v>
       </c>
-      <c r="B1211" s="77" t="s">
+      <c r="B1211" s="205" t="s">
         <v>2373</v>
       </c>
-      <c r="C1211" s="25">
-        <v>476</v>
-      </c>
-      <c r="D1211" s="25">
-        <v>376.40699999999998</v>
-      </c>
-      <c r="E1211" s="25">
-        <v>440</v>
-      </c>
-      <c r="F1211" s="25"/>
-      <c r="G1211" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1211" s="25" t="s">
-        <v>929</v>
-      </c>
-      <c r="I1211" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1211" s="224" t="s">
-        <v>2451</v>
-      </c>
-      <c r="K1211" s="224" t="s">
+      <c r="C1211" s="205" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1211" s="205">
+        <v>247.41800000000001</v>
+      </c>
+      <c r="E1211" s="205">
+        <v>267.45499999999998</v>
+      </c>
+      <c r="F1211" s="205" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G1211" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1211" s="205"/>
+      <c r="I1211" s="205"/>
+      <c r="J1211" s="206" t="s">
+        <v>2452</v>
+      </c>
+      <c r="K1211" s="206" t="s">
         <v>2354</v>
       </c>
       <c r="L1211" s="201" t="s">
@@ -55957,51 +55967,47 @@
       <c r="M1211" s="202" t="s">
         <v>2133</v>
       </c>
-      <c r="N1211" s="236" t="s">
-        <v>2117</v>
+      <c r="N1211" s="202" t="s">
+        <v>2118</v>
       </c>
       <c r="O1211" s="146" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="1212" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1212" s="77" t="s">
-        <v>2372</v>
-      </c>
-      <c r="B1212" s="77" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C1212" s="28" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D1212" s="28">
-        <v>247.41800000000001</v>
-      </c>
-      <c r="E1212" s="28">
-        <v>267.45499999999998</v>
-      </c>
-      <c r="F1212" s="28" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G1212" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1212" s="28"/>
-      <c r="I1212" s="28"/>
-      <c r="J1212" s="224" t="s">
-        <v>2452</v>
-      </c>
-      <c r="K1212" s="224" t="s">
-        <v>2354</v>
+      <c r="A1212" s="198" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B1212" s="204" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1212" s="205">
+        <v>400</v>
+      </c>
+      <c r="D1212" s="205" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E1212" s="205" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F1212" s="205"/>
+      <c r="G1212" s="205"/>
+      <c r="H1212" s="205"/>
+      <c r="I1212" s="205"/>
+      <c r="J1212" s="206" t="s">
+        <v>2453</v>
+      </c>
+      <c r="K1212" s="206" t="s">
+        <v>2355</v>
       </c>
       <c r="L1212" s="201" t="s">
         <v>670</v>
       </c>
       <c r="M1212" s="202" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="N1212" s="202" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="O1212" s="146" t="s">
         <v>669</v>
